--- a/Task_6_Packing_MVP/subdata1.xlsx
+++ b/Task_6_Packing_MVP/subdata1.xlsx
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W2" sqref="P2:W2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,8 +470,8 @@
     <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="24" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>20</v>
